--- a/Datasets/Winkler/Data/Winkler_FS_mitIDs_nichtfertig.xlsx
+++ b/Datasets/Winkler/Data/Winkler_FS_mitIDs_nichtfertig.xlsx
@@ -3954,7 +3954,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC17" sqref="AC17"/>
+      <selection pane="bottomLeft" activeCell="W187" sqref="W187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
